--- a/Gate to Trig v1 BOM.xlsx
+++ b/Gate to Trig v1 BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="160" windowWidth="10860" windowHeight="15300" tabRatio="500"/>
+    <workbookView xWindow="14460" yWindow="80" windowWidth="10860" windowHeight="15300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -537,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
